--- a/public/static/index/检查结果.xlsx
+++ b/public/static/index/检查结果.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qiu\Desktop\W工作文件\zf8003基因分析\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789A5A61-C938-4E9E-85F6-632A92D1B5A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>结果报告</t>
   </si>
@@ -68,7 +62,7 @@
   </si>
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>添加一行</t>
@@ -97,15 +91,69 @@
       <t>基因座分型结果</t>
     </r>
   </si>
+  <si>
+    <t>GATA_H4</t>
+  </si>
+  <si>
+    <t>DYS627</t>
+  </si>
+  <si>
+    <t>DYS438</t>
+  </si>
+  <si>
+    <t>DYS389I</t>
+  </si>
+  <si>
+    <t>DYS448</t>
+  </si>
+  <si>
+    <t>DYS389II</t>
+  </si>
+  <si>
+    <t>DYF387S1</t>
+  </si>
+  <si>
+    <t>DYS518</t>
+  </si>
+  <si>
+    <t>DYS393</t>
+  </si>
+  <si>
+    <t>DYS576</t>
+  </si>
+  <si>
+    <t>DYS570</t>
+  </si>
+  <si>
+    <t>DYS392</t>
+  </si>
+  <si>
+    <t>DYS449</t>
+  </si>
+  <si>
+    <t>DYS527</t>
+  </si>
+  <si>
+    <t>民族</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地域</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地域只填省份就可以了</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,13 +172,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -180,6 +221,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -189,7 +237,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -207,19 +255,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -256,11 +291,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -270,47 +305,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -318,11 +353,20 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -634,199 +678,399 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" ht="22.5">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:5" ht="22.5">
+      <c r="A2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+      <c r="B2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:5" ht="22.5">
+      <c r="A3" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="33" customHeight="1">
+      <c r="A4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="14"/>
-    </row>
-    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" ht="14.25">
+      <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B5" s="16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:5" ht="14.25">
+      <c r="A6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B6" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.25">
+      <c r="A7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B7" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" ht="14.25">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B8" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:5" ht="14.25">
+      <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B9" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:5" ht="14.25">
+      <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B10" s="6">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="1:5" ht="14.25">
+      <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="17"/>
-    </row>
-    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="18" t="s">
+      <c r="B11" s="6">
+        <v>15</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="1:5" ht="14.25">
+      <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="19"/>
-    </row>
-    <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="18" t="s">
+      <c r="B12" s="6">
+        <v>11</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" spans="1:5" ht="14.25">
+      <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="19"/>
-    </row>
-    <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="18" t="s">
+      <c r="B13" s="6">
+        <v>15</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="1:5" ht="14.25">
+      <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="19"/>
-    </row>
-    <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="18" t="s">
+      <c r="B14" s="6">
+        <v>10</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="1:5" ht="14.25">
+      <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="19"/>
-    </row>
-    <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="18" t="s">
+      <c r="B15" s="5">
+        <v>24</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" ht="14.25">
+      <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="19"/>
-    </row>
-    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="18" t="s">
+      <c r="B16" s="6">
+        <v>21</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="1:5" ht="14.25">
+      <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="19"/>
-    </row>
-    <row r="17" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="20" t="s">
+      <c r="B17" s="6">
+        <v>14</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="1:5" ht="14.25">
+      <c r="A18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="6">
+        <v>14</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="19"/>
-    </row>
-    <row r="18" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-    </row>
-    <row r="19" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-    </row>
-    <row r="20" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-    </row>
-    <row r="23" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-    </row>
-    <row r="25" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="9"/>
-      <c r="B25" s="7"/>
-    </row>
-    <row r="26" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="9"/>
-      <c r="B26" s="7"/>
-    </row>
-    <row r="27" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="9"/>
-      <c r="B27" s="6"/>
-    </row>
-    <row r="28" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="9"/>
-      <c r="B28" s="7"/>
-    </row>
-    <row r="29" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="9"/>
-      <c r="B29" s="7"/>
-    </row>
-    <row r="30" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="9"/>
-      <c r="B30" s="7"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="10"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="11">
+        <v>11</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="11">
+        <v>12</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="11">
+        <v>20</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="11">
+        <v>30</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="11">
+        <v>35</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="11">
+        <v>35</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="11">
+        <v>12</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="11">
+        <v>0</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="11">
+        <v>0</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="11">
+        <v>0</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+    </row>
+    <row r="32" spans="1:5" ht="14.25">
+      <c r="A32" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
